--- a/2nd_sem/582_structurePerdiction/hw1/3_2.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/3_2.xlsx
@@ -1369,6 +1369,625 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ocr Training 3rd order</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$U$1,Sheet1!$U$3,Sheet1!$U$5,Sheet1!$U$7,Sheet1!$U$9,Sheet1!$U$11,Sheet1!$U$13,Sheet1!$U$15,Sheet1!$U$17,Sheet1!$U$19,Sheet1!$U$21,Sheet1!$U$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.35282651072124699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68832575265323803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73077756118691795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76933073424301401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90015161360190599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.964479098982023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95343296512887099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96036387264457401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96859432531947098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97249296079705405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98375568551007098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.991552956465237</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CF7-4C66-ADDB-B3D35AEE78DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="441188152"/>
+        <c:axId val="441192744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441188152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441192744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441192744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441188152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Ocr</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> Testing 3rd order</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$U$2,Sheet1!$U$4,Sheet1!$U$6,Sheet1!$U$8,Sheet1!$U$10,Sheet1!$U$12,Sheet1!$U$14,Sheet1!$U$16,Sheet1!$U$18,Sheet1!$U$20,Sheet1!$U$22,Sheet1!$U$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.226334083009609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55898589245552999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56552852177468804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58904109589041098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74626865671641796</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79043140462073103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79840523410345499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83030055203434805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.812921692905336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81517072173379601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86853404211817598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87384992843999099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6470-4D78-ABF5-690ACFE652BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="491046488"/>
+        <c:axId val="491047144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491046488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491047144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491047144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491046488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1529,6 +2148,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3078,6 +3777,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3739,6 +5470,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DD6855B-69D0-4D16-92FA-70388F7A765B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2C1F77-EA4F-4605-A487-59A0FB34C2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4005,15 +5808,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.38141650422352102</v>
       </c>
@@ -4023,8 +5826,11 @@
       <c r="D1">
         <v>0.29889538661468401</v>
       </c>
+      <c r="U1">
+        <v>0.35282651072124699</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.548624648039852</v>
       </c>
@@ -4034,8 +5840,11 @@
       <c r="D2">
         <v>0.24698425679819999</v>
       </c>
+      <c r="U2">
+        <v>0.226334083009609</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.61598440545808897</v>
       </c>
@@ -4045,8 +5854,11 @@
       <c r="D3">
         <v>0.55295646523716702</v>
       </c>
+      <c r="U3">
+        <v>0.68832575265323803</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.68919211609270004</v>
       </c>
@@ -4056,8 +5868,11 @@
       <c r="D4">
         <v>0.44448987937027101</v>
       </c>
+      <c r="U4">
+        <v>0.55898589245552999</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.74442278535845696</v>
       </c>
@@ -4067,8 +5882,11 @@
       <c r="D5">
         <v>0.75308641975308599</v>
       </c>
+      <c r="U5">
+        <v>0.73077756118691795</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.79727095516569202</v>
       </c>
@@ -4078,8 +5896,11 @@
       <c r="D6">
         <v>0.587405438560621</v>
       </c>
+      <c r="U6">
+        <v>0.56552852177468804</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.83777344596058001</v>
       </c>
@@ -4089,8 +5910,11 @@
       <c r="D7">
         <v>0.85033571583279099</v>
       </c>
+      <c r="U7">
+        <v>0.76933073424301401</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.83127572016460904</v>
       </c>
@@ -4100,8 +5924,11 @@
       <c r="D8">
         <v>0.68718053567777504</v>
       </c>
+      <c r="U8">
+        <v>0.58904109589041098</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.83235867446393697</v>
       </c>
@@ -4111,8 +5938,11 @@
       <c r="D9">
         <v>0.84167208143816297</v>
       </c>
+      <c r="U9">
+        <v>0.90015161360190599</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.86008230452674805</v>
       </c>
@@ -4122,8 +5952,11 @@
       <c r="D10">
         <v>0.65487630341443404</v>
       </c>
+      <c r="U10">
+        <v>0.74626865671641796</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.89148797920727696</v>
       </c>
@@ -4133,8 +5966,11 @@
       <c r="D11">
         <v>0.90664933939787695</v>
       </c>
+      <c r="U11">
+        <v>0.964479098982023</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.91011479315572796</v>
       </c>
@@ -4144,8 +5980,11 @@
       <c r="D12">
         <v>0.72112042527090503</v>
       </c>
+      <c r="U12">
+        <v>0.79043140462073103</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.93783842321854005</v>
       </c>
@@ -4155,8 +5994,11 @@
       <c r="D13">
         <v>0.93264024258176303</v>
       </c>
+      <c r="U13">
+        <v>0.95343296512887099</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.92874160710417997</v>
       </c>
@@ -4166,8 +6008,11 @@
       <c r="D14">
         <v>0.75853608668983796</v>
       </c>
+      <c r="U14">
+        <v>0.79840523410345499</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.92289365388780598</v>
       </c>
@@ -4177,8 +6022,11 @@
       <c r="D15">
         <v>0.94866796621182503</v>
       </c>
+      <c r="U15">
+        <v>0.96036387264457401</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.94217024041585395</v>
       </c>
@@ -4188,8 +6036,11 @@
       <c r="D16">
         <v>0.74913105704354899</v>
       </c>
+      <c r="U16">
+        <v>0.83030055203434805</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.97054364305826202</v>
       </c>
@@ -4199,8 +6050,11 @@
       <c r="D17">
         <v>0.93372319688109096</v>
       </c>
+      <c r="U17">
+        <v>0.96859432531947098</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.97249296079705405</v>
       </c>
@@ -4210,8 +6064,11 @@
       <c r="D18">
         <v>0.75199345737068002</v>
       </c>
+      <c r="U18">
+        <v>0.812921692905336</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.95646523716699094</v>
       </c>
@@ -4221,8 +6078,11 @@
       <c r="D19">
         <v>0.95559887372752805</v>
       </c>
+      <c r="U19">
+        <v>0.97249296079705405</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.973792505956248</v>
       </c>
@@ -4232,33 +6092,48 @@
       <c r="D20">
         <v>0.76835003066857399</v>
       </c>
+      <c r="U20">
+        <v>0.81517072173379601</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D21">
         <v>0.95603205544726</v>
       </c>
+      <c r="U21">
+        <v>0.98375568551007098</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D22">
         <v>0.750562257207115</v>
       </c>
+      <c r="U22">
+        <v>0.86853404211817598</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D23">
         <v>0.97790773229369699</v>
       </c>
+      <c r="U23">
+        <v>0.991552956465237</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D24">
         <v>0.78736454712737602</v>
       </c>
+      <c r="U24">
+        <v>0.87384992843999099</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D25">
         <v>0.96664500758067995</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D26">
         <v>0.77162134532815296</v>
       </c>

--- a/2nd_sem/582_structurePerdiction/hw1/3_2.xlsx
+++ b/2nd_sem/582_structurePerdiction/hw1/3_2.xlsx
@@ -5810,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
